--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Avp-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Avp-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Avp</t>
+  </si>
+  <si>
+    <t>Avpr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Avp</t>
-  </si>
-  <si>
-    <t>Avpr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +543,40 @@
         <v>0.520187</v>
       </c>
       <c r="I2">
-        <v>0.635118718400467</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5371252445880853</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N2">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q2">
-        <v>0.006478755689333334</v>
+        <v>0.04711975222966665</v>
       </c>
       <c r="R2">
-        <v>0.038872534136</v>
+        <v>0.2827185133779999</v>
       </c>
       <c r="S2">
-        <v>0.1273328403673141</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="T2">
-        <v>0.1076864545870058</v>
+        <v>0.3599820106359796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0.520187</v>
       </c>
       <c r="I3">
-        <v>0.635118718400467</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5371252445880853</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,60 +617,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N3">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q3">
-        <v>0.0258363878225</v>
+        <v>0.060932624432</v>
       </c>
       <c r="R3">
-        <v>0.155018326935</v>
+        <v>0.3655957465919999</v>
       </c>
       <c r="S3">
-        <v>0.5077858780331528</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="T3">
-        <v>0.4294387900010794</v>
+        <v>0.4655085737600355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.149426</v>
+        <v>0.2600935</v>
       </c>
       <c r="H4">
-        <v>0.448278</v>
+        <v>0.520187</v>
       </c>
       <c r="I4">
-        <v>0.3648812815995331</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4628747554119148</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,90 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N4">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q4">
-        <v>0.003722102042666666</v>
+        <v>0.02284236484616667</v>
       </c>
       <c r="R4">
-        <v>0.033498918384</v>
+        <v>0.137054189077</v>
       </c>
       <c r="S4">
-        <v>0.07315383508133143</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="T4">
-        <v>0.09280022086163973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.149426</v>
-      </c>
-      <c r="H5">
-        <v>0.448278</v>
-      </c>
-      <c r="I5">
-        <v>0.3648812815995331</v>
-      </c>
-      <c r="J5">
-        <v>0.4628747554119148</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.09933500000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.298005</v>
-      </c>
-      <c r="O5">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="P5">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="Q5">
-        <v>0.01484323171</v>
-      </c>
-      <c r="R5">
-        <v>0.13358908539</v>
-      </c>
-      <c r="S5">
-        <v>0.2917274465182016</v>
-      </c>
-      <c r="T5">
-        <v>0.3700745345502749</v>
+        <v>0.174509415603985</v>
       </c>
     </row>
   </sheetData>
